--- a/Data/Pages/dlgProfil_pagAbwesenheiten.xlsx
+++ b/Data/Pages/dlgProfil_pagAbwesenheiten.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\PythonProject1\Data\Pages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496623CB-EA4B-463D-9E30-C30713EEBB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C0F06D-BB79-4C51-850E-0CF9A88109E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2376" yWindow="924" windowWidth="35220" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="708" yWindow="1140" windowWidth="40440" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Control</t>
   </si>
@@ -33,22 +33,46 @@
     <t>Record/Selector</t>
   </si>
   <si>
-    <t>Action</t>
-  </si>
-  <si>
     <t>Check defaults</t>
   </si>
   <si>
-    <t>Modus</t>
-  </si>
-  <si>
-    <t>&lt;CHK&gt;</t>
-  </si>
-  <si>
     <t>butAbwesenheitAnlegen</t>
   </si>
   <si>
-    <t>tabAnwesenheiten</t>
+    <t>Abwesenheit anlegen</t>
+  </si>
+  <si>
+    <t>&lt;ENABLED&gt;</t>
+  </si>
+  <si>
+    <t>Get table content</t>
+  </si>
+  <si>
+    <t>&lt;GETCONTENT&gt;</t>
+  </si>
+  <si>
+    <t>Abwesenheit Sylvester checken</t>
+  </si>
+  <si>
+    <t>Abwesenheit Sylvester löschen</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Abwesenheit Sylvester</t>
+  </si>
+  <si>
+    <t>&lt;DELETE&gt;Abwesenheit Sylvester</t>
+  </si>
+  <si>
+    <t>xpath=//button[@data-bs-target='#createAbsenceModal']</t>
+  </si>
+  <si>
+    <t>tabAbwesenheiten</t>
+  </si>
+  <si>
+    <t>xpath=//table</t>
   </si>
 </sst>
 </file>
@@ -109,14 +133,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>517240</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>126865</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>181960</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>157345</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -139,7 +163,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="914400"/>
+          <a:off x="0" y="1676400"/>
           <a:ext cx="22600000" cy="6161905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -449,54 +473,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Pages/dlgProfil_pagAbwesenheiten.xlsx
+++ b/Data/Pages/dlgProfil_pagAbwesenheiten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C0F06D-BB79-4C51-850E-0CF9A88109E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA8B8A8-1D7F-4A10-ABC4-275971D0A987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="708" yWindow="1140" windowWidth="40440" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="3816" yWindow="444" windowWidth="37188" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Control</t>
-  </si>
-  <si>
-    <t>Record/Selector</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Check defaults</t>
   </si>
@@ -73,13 +67,22 @@
   </si>
   <si>
     <t>xpath=//table</t>
+  </si>
+  <si>
+    <t>Chromium</t>
+  </si>
+  <si>
+    <t>Pixel9Pro_API35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Record / Control </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,13 +90,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -108,8 +131,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -133,13 +159,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>181960</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>189580</xdr:colOff>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>157345</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -473,79 +499,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38" customWidth="1"/>
     <col min="2" max="2" width="49.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
-        <v>12</v>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Pages/dlgProfil_pagAbwesenheiten.xlsx
+++ b/Data/Pages/dlgProfil_pagAbwesenheiten.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA8B8A8-1D7F-4A10-ABC4-275971D0A987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7674004A-E241-4223-9627-61725DB4AF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3816" yWindow="444" windowWidth="37188" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="1020" yWindow="516" windowWidth="38676" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Check defaults</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t xml:space="preserve">Record / Control </t>
+  </si>
+  <si>
+    <t>xpath=//android.widget.Button[@text="Abwesenheit anlegen"]</t>
+  </si>
+  <si>
+    <t>xpath=//android.widget.GridView</t>
   </si>
 </sst>
 </file>
@@ -99,7 +105,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,12 +115,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -135,7 +135,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -163,8 +163,8 @@
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>189580</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>692500</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>157345</xdr:rowOff>
     </xdr:to>
@@ -502,13 +502,13 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="49.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -527,8 +527,12 @@
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">

--- a/Data/Pages/dlgProfil_pagAbwesenheiten.xlsx
+++ b/Data/Pages/dlgProfil_pagAbwesenheiten.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7674004A-E241-4223-9627-61725DB4AF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60FADF3-C78B-4376-928C-0F6CDD5ED38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="516" windowWidth="38676" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="12624" yWindow="2664" windowWidth="25476" windowHeight="13680" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>Abwesenheit Sylvester</t>
   </si>
   <si>
-    <t>&lt;DELETE&gt;Abwesenheit Sylvester</t>
-  </si>
-  <si>
     <t>xpath=//button[@data-bs-target='#createAbsenceModal']</t>
   </si>
   <si>
@@ -81,7 +78,10 @@
     <t>xpath=//android.widget.Button[@text="Abwesenheit anlegen"]</t>
   </si>
   <si>
-    <t>xpath=//android.widget.GridView</t>
+    <t>&lt;DELETE Abwesenheit Sylvester&gt;</t>
+  </si>
+  <si>
+    <t>//android.widget.GridView</t>
   </si>
 </sst>
 </file>
@@ -131,11 +131,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -502,7 +501,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,35 +513,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -582,7 +581,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
